--- a/ODCM_Admin/ToPrint/ReservationList.xlsx
+++ b/ODCM_Admin/ToPrint/ReservationList.xlsx
@@ -270,9 +270,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -881,120 +881,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="27" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="25" t="s">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="26" t="s">
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="27" t="s">
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>

--- a/ODCM_Admin/ToPrint/ReservationList.xlsx
+++ b/ODCM_Admin/ToPrint/ReservationList.xlsx
@@ -260,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,9 +269,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -299,6 +296,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -331,9 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -882,88 +879,86 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" style="27" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="27" customWidth="1"/>
+    <col min="1" max="5" width="18.28515625" style="15" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
@@ -971,26 +966,26 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="18"/>

--- a/ODCM_Admin/ToPrint/ReservationList.xlsx
+++ b/ODCM_Admin/ToPrint/ReservationList.xlsx
@@ -260,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +269,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -296,41 +299,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -879,86 +882,88 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="18.28515625" style="15" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" style="27" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="27" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="25"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+    <row r="7" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
@@ -966,26 +971,26 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="18"/>

--- a/ODCM_Admin/ToPrint/ReservationList.xlsx
+++ b/ODCM_Admin/ToPrint/ReservationList.xlsx
@@ -299,6 +299,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -331,9 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -881,46 +881,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A41" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" style="27" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" style="16" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="16" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -929,8 +929,8 @@
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -939,48 +939,48 @@
       <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="11"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="15"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -993,8 +993,8 @@
       <c r="C10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1034,7 +1034,7 @@
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;R&amp;"Century Gothic,Regular"&amp;P</oddFooter>
+    <oddFooter>&amp;LPrepared by: Dr. Arviel D. Tolentino&amp;CDate Printed: &amp;D&amp;R&amp;"Century Gothic,Regular"&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
